--- a/config_12.28/permission_server_config.xlsx
+++ b/config_12.28/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6113" uniqueCount="2298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6117" uniqueCount="2301">
   <si>
     <t>key|唯一标识</t>
   </si>
@@ -10569,22 +10569,6 @@
   </si>
   <si>
     <r>
-      <t>VIP6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>及以上玩家</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>VIP8</t>
     </r>
     <r>
@@ -10684,6 +10668,34 @@
   </si>
   <si>
     <t>不是CPS渠道</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>商场礼包显示V6以上玩家可见</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>VIP6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>及以上玩家</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP6及以上玩家</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>shopping_center_can_show_v6</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -11566,11 +11578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q527"/>
+  <dimension ref="A1:Q530"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A502" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C224" sqref="C224"/>
+      <selection pane="bottomLeft" activeCell="A530" sqref="A530"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -16784,6 +16796,17 @@
         <v>522</v>
       </c>
     </row>
+    <row r="530" spans="1:3">
+      <c r="A530" s="1" t="s">
+        <v>2300</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>2297</v>
+      </c>
+      <c r="C530" s="1">
+        <v>546</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16795,7 +16818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P446"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -31944,7 +31967,7 @@
         <v>2269</v>
       </c>
       <c r="D439" s="119" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="G439" s="7">
         <v>538</v>
@@ -32037,10 +32060,10 @@
         <v>1</v>
       </c>
       <c r="C442" s="119" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D442" s="119" t="s">
         <v>2284</v>
-      </c>
-      <c r="D442" s="119" t="s">
-        <v>2285</v>
       </c>
       <c r="G442" s="7">
         <v>541</v>
@@ -32072,7 +32095,7 @@
         <v>2272</v>
       </c>
       <c r="D443" s="119" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="G443" s="7">
         <v>542</v>
@@ -32104,7 +32127,7 @@
         <v>2273</v>
       </c>
       <c r="D444" s="119" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="G444" s="7">
         <v>543</v>
@@ -32136,7 +32159,7 @@
         <v>2274</v>
       </c>
       <c r="D445" s="119" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G445" s="7">
         <v>544</v>
@@ -32165,10 +32188,10 @@
         <v>1</v>
       </c>
       <c r="C446" s="119" t="s">
+        <v>2291</v>
+      </c>
+      <c r="D446" s="7" t="s">
         <v>2292</v>
-      </c>
-      <c r="D446" s="7" t="s">
-        <v>2293</v>
       </c>
       <c r="G446" s="7">
         <v>545</v>
@@ -32183,7 +32206,7 @@
         <v>2092</v>
       </c>
       <c r="M446" s="7" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
     </row>
   </sheetData>
@@ -32196,13 +32219,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1260"/>
+  <dimension ref="A1:I1261"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C1235" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D1264" sqref="D1264"/>
+      <selection pane="bottomRight" activeCell="A1261" sqref="A1261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -59872,7 +59895,7 @@
         <v>1</v>
       </c>
       <c r="G1162" s="122" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1163" spans="1:7">
@@ -59941,7 +59964,7 @@
         <v>2</v>
       </c>
       <c r="G1165" s="122" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1166" spans="1:7">
@@ -60010,7 +60033,7 @@
         <v>3</v>
       </c>
       <c r="G1168" s="122" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1169" spans="1:7">
@@ -61551,7 +61574,7 @@
         <v>1</v>
       </c>
       <c r="G1235" s="122" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="1236" spans="1:7">
@@ -61942,7 +61965,7 @@
         <v>1</v>
       </c>
       <c r="G1252" s="122" t="s">
-        <v>2280</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="1253" spans="1:7">
@@ -61965,7 +61988,7 @@
         <v>1</v>
       </c>
       <c r="G1253" s="122" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1254" spans="1:7">
@@ -62034,7 +62057,7 @@
         <v>1</v>
       </c>
       <c r="G1256" s="122" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="1257" spans="1:7">
@@ -62057,7 +62080,7 @@
         <v>1</v>
       </c>
       <c r="G1257" s="122" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1258" spans="1:7">
@@ -62071,7 +62094,7 @@
         <v>1667</v>
       </c>
       <c r="D1258" s="123" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E1258" s="21">
         <v>5</v>
@@ -62117,7 +62140,7 @@
         <v>2059</v>
       </c>
       <c r="D1260" s="21" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E1260" s="21">
         <v>5</v>
@@ -62126,7 +62149,30 @@
         <v>1</v>
       </c>
       <c r="G1260" s="21" t="s">
-        <v>2297</v>
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7">
+      <c r="A1261" s="21">
+        <v>1560</v>
+      </c>
+      <c r="B1261" s="21">
+        <v>546</v>
+      </c>
+      <c r="C1261" s="21" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D1261" s="21">
+        <v>6</v>
+      </c>
+      <c r="E1261" s="21">
+        <v>3</v>
+      </c>
+      <c r="F1261" s="21">
+        <v>1</v>
+      </c>
+      <c r="G1261" s="21" t="s">
+        <v>2299</v>
       </c>
     </row>
   </sheetData>
